--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2664484.722844718</v>
+        <v>2662227.700935635</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.39887985774739</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.1960097880556</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.1478855987996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>53.56970526848159</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.3159054168623</v>
+        <v>205.3743261851591</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>213.798336427294</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534525</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873207</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>120.6353666620238</v>
+        <v>205.5261888872235</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.9321526700473</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744752</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>264.9282693816771</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>7.043238784029777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247655</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>84.10895172234402</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.19569619650092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744755</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>225.48552678711</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>126.0955237083911</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>170.8065716692281</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,7 +2770,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492373</v>
+        <v>29.74310329855248</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>6.380068175847479</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>19.70466129661695</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935321</v>
+        <v>91.48962022749625</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5897927156035254</v>
+        <v>87.87589738164191</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430367</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.492693987764</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172077</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354228</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481858</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006319</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636896</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797721</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335029</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.168914859137</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1488.206397918725</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430002</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2369.374921118272</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2369.374921118272</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2369.374921118272</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1017.998017761264</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>649.0355008208528</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>290.7698022141023</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332392</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825386</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5045,46 +5045,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>264.4972173763014</v>
+      </c>
+      <c r="C13" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C13" t="n">
-        <v>95.56103444839445</v>
-      </c>
       <c r="D13" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783407</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413802</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1741.136558882383</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5303,19 +5303,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="C16" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="D16" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="E16" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="F16" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="G16" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="H16" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C16" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="D16" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="E16" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="F16" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="G16" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="H16" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="I16" t="n">
-        <v>95.56103444839437</v>
-      </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>641.6688416715965</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>413.6792907735792</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,49 +5595,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>560.8310435707792</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,10 +5671,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5704,19 +5704,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.946126648453</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783403</v>
+        <v>1191.261638442566</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413797</v>
+        <v>1191.261638442566</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433624</v>
+        <v>963.2720875445491</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998323</v>
+        <v>742.479508401019</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L20" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142067</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763014</v>
+        <v>425.7583423057187</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>425.7583423057187</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>709.686441383852</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858346</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.1456822065411</v>
+        <v>425.7583423057187</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6057,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1416.98323506094</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254639</v>
+        <v>3175.513123659586</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4055.477773989041</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4450.252140346219</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4698.538502101901</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
@@ -6303,19 +6303,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,7 +6333,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6342,13 +6342,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736755</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736755</v>
+        <v>222.9302503154561</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736755</v>
+        <v>222.9302503154561</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1693.981118287254</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1472.21450285678</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1183.111635982423</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>893.6944659454626</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X28" t="n">
-        <v>665.7049150474453</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>391.8664332433631</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6446,13 +6446,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,25 +6464,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1586.925993846824</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6491,22 +6491,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,40 +6540,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>361.822894557956</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6640,10 +6640,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
         <v>1674.827124689058</v>
@@ -6655,16 +6655,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783406</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W31" t="n">
-        <v>619.85598414138</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433626</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998325</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.4972173763013</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1949.898952795766</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1728.132337365293</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1439.029470490936</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1184.344982285049</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>894.9278122480885</v>
+        <v>889.3694558989293</v>
       </c>
       <c r="X34" t="n">
-        <v>666.9382613500711</v>
+        <v>889.3694558989293</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.145682206541</v>
+        <v>889.3694558989293</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6938,25 +6938,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7053,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308512</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152487</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992662</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834336</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275722</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
         <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100837</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988873</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.113257771092</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1773.494298131661</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1552.794607234929</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1264.758664894316</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.141101222172</v>
+        <v>922.9733187312256</v>
       </c>
       <c r="W37" t="n">
-        <v>722.7908557189536</v>
+        <v>634.6230732280079</v>
       </c>
       <c r="X37" t="n">
-        <v>495.8682293546789</v>
+        <v>407.7004468637334</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.1425747448915</v>
+        <v>187.9747922539462</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,46 +7172,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>634.8921067227643</v>
       </c>
       <c r="L38" t="n">
-        <v>1617.665844847779</v>
+        <v>1085.926319971173</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.197749519704</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.950021746351</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
         <v>463.8981507430895</v>
@@ -7321,10 +7321,10 @@
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7366,16 +7366,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,22 +7412,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7436,25 +7436,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819759</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7594,7 +7594,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,7 +7603,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
         <v>1276.596863849073</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001584</v>
@@ -7643,40 +7643,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4411.329534748787</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7731,7 +7731,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,22 +7743,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8225,7 +8225,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>295.4822118493981</v>
+        <v>185.3870697685873</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>189.7998007892645</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>136.2499899971299</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.917311333789257e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>139.3563597571375</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>20.70318561718932</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>295.4822118493993</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>316.9032015413812</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>16.80057335908884</v>
       </c>
       <c r="L38" t="n">
-        <v>60.66917680434125</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>372.6479802946579</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>60.01894884692027</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>105.0742887270134</v>
+        <v>20.18346650181365</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696666</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>21.59472895491388</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.1685994215831</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>64.50652129586834</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>183.3889571555939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>60.72631141850283</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>20.33843893817809</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.96245366221375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270136</v>
+        <v>150.0888768833848</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.3889571555944</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>266.818337039974</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>87.28610466603561</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102226</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298071</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581639</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>144.364792734526</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.969552970623</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259156</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143286</v>
+        <v>95.29616512143267</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.28610466603858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-5.897504706808832e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-6.394884621840902e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191271</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792254.3209423949</v>
+        <v>792254.3209423951</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="F2" t="n">
         <v>615476.7696748234</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="H2" t="n">
+        <v>615476.7696748241</v>
+      </c>
+      <c r="I2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="K2" t="n">
         <v>615476.7696748239</v>
       </c>
-      <c r="G2" t="n">
-        <v>615476.7696748234</v>
-      </c>
-      <c r="H2" t="n">
-        <v>615476.7696748239</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748234</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748233</v>
-      </c>
       <c r="L2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748241</v>
       </c>
       <c r="M2" t="n">
-        <v>615945.1543369083</v>
+        <v>615945.1543369086</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="O2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.319069669</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414988</v>
+        <v>36735.10506414969</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918998</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918992</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918989</v>
-      </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811446</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26497,10 +26497,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955459</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.272490262</v>
+        <v>-219868.2724902623</v>
       </c>
       <c r="C6" t="n">
+        <v>370099.6067242821</v>
+      </c>
+      <c r="D6" t="n">
         <v>370099.6067242824</v>
       </c>
-      <c r="D6" t="n">
-        <v>370099.6067242823</v>
-      </c>
       <c r="E6" t="n">
-        <v>-226432.654891487</v>
+        <v>-226499.8503817123</v>
       </c>
       <c r="F6" t="n">
-        <v>500944.7591019202</v>
+        <v>500877.563611694</v>
       </c>
       <c r="G6" t="n">
-        <v>500944.7591019198</v>
+        <v>500877.5636116942</v>
       </c>
       <c r="H6" t="n">
-        <v>500944.7591019202</v>
+        <v>500877.5636116948</v>
       </c>
       <c r="I6" t="n">
-        <v>500944.75910192</v>
+        <v>500877.563611694</v>
       </c>
       <c r="J6" t="n">
-        <v>324521.5399093269</v>
+        <v>324454.3444191009</v>
       </c>
       <c r="K6" t="n">
-        <v>500944.7591019197</v>
+        <v>500877.5636116944</v>
       </c>
       <c r="L6" t="n">
-        <v>500944.7591019198</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="M6" t="n">
-        <v>370489.4657395702</v>
+        <v>370423.7811676093</v>
       </c>
       <c r="N6" t="n">
-        <v>465633.9422691588</v>
+        <v>465633.9422691585</v>
       </c>
       <c r="O6" t="n">
         <v>502369.0473333086</v>
       </c>
       <c r="P6" t="n">
-        <v>502369.0473333084</v>
+        <v>502369.0473333082</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018735</v>
+        <v>45.91888133018711</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>289.2841617629356</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>158.0449589293574</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.43676775329516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>197.6544622398077</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352325</v>
+        <v>13.21032716693568</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>168.1320336449678</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.99689532463643</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405222</v>
+        <v>1.056255288405436</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34945,13 +34945,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>751.0723262417303</v>
+        <v>640.9771841609195</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,10 +35659,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35820,7 +35820,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
         <v>78.39423853789366</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>588.5617870086363</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>675.1711058273564</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>691.658195170049</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>80.31638415941416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>675.7737917599593</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>694.2441980687712</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37306,10 +37306,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>824.9562024296004</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147148</v>
+        <v>46.63467190147166</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327248</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586034</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818891</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559453</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.409385511045</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335157</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629888</v>
+        <v>79.45049382629909</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>353.9918599144893</v>
       </c>
       <c r="L38" t="n">
-        <v>516.2592911966734</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>924.9498157075694</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,16 +38017,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38035,10 +38035,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>310.8132536506398</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
